--- a/biology/Médecine/Stanisław_Krzyżanowski/Stanisław_Krzyżanowski.xlsx
+++ b/biology/Médecine/Stanisław_Krzyżanowski/Stanisław_Krzyżanowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stanis%C5%82aw_Krzy%C5%BCanowski</t>
+          <t>Stanisław_Krzyżanowski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stanisław Henryk Krzyżanowski (29 octobre 1874 – 10 février 1917) est un médecin polonais[1].  Il est né à Tarczyn et mort à Otwock, en Pologne. D'autres dates pour sa naissance (1877) et sa mort (10 novembre 1917) sont données sur le site historique d'Otwock[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stanisław Henryk Krzyżanowski (29 octobre 1874 – 10 février 1917) est un médecin polonais.  Il est né à Tarczyn et mort à Otwock, en Pologne. D'autres dates pour sa naissance (1877) et sa mort (10 novembre 1917) sont données sur le site historique d'Otwock. 
 Il fut l'un des premiers membres du Parti socialiste polonais (PSP).
-Comme médecin, Stanisław Krzyżanowski a eu principalement comme patients des Juifs pauvres[3] Lors d'une épidémie de typhus en 1917, il contracte cette maladie et meurt des complications[4].
+Comme médecin, Stanisław Krzyżanowski a eu principalement comme patients des Juifs pauvres Lors d'une épidémie de typhus en 1917, il contracte cette maladie et meurt des complications.
 Il était marié à Janina Karolina Grzybowska, et a eu pour fille Irena Sendler.
 </t>
         </is>
